--- a/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.014900000000003</v>
+        <v>6.760400000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>2.81555</v>
+        <v>3.1677</v>
       </c>
       <c r="D2" t="n">
-        <v>30.5109</v>
+        <v>29.9263</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.84945</v>
+        <v>28.0902</v>
       </c>
       <c r="G2" t="n">
-        <v>27.84945</v>
+        <v>28.0902</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.8652</v>
+        <v>36.11659999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>27.849</v>
+        <v>28.09</v>
       </c>
       <c r="M2" t="n">
-        <v>28.0162</v>
+        <v>8.026599999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>28.0162</v>
+        <v>8.026599999999998</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>12.011</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>3.524</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.563</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.972</v>
+        <v>31.989</v>
       </c>
       <c r="G3" t="n">
-        <v>26.972</v>
+        <v>30.259</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.0228</v>
+        <v>33.4962</v>
       </c>
       <c r="L3" t="n">
-        <v>26.972</v>
+        <v>30.259</v>
       </c>
       <c r="M3" t="n">
-        <v>39.0508</v>
+        <v>3.2372</v>
       </c>
       <c r="N3" t="n">
-        <v>39.0508</v>
+        <v>3.2372</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>52.278</v>
+        <v>50.966</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.24</v>
+        <v>37.111</v>
       </c>
       <c r="G4" t="n">
-        <v>35.24038630136986</v>
+        <v>37.11101095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.06</v>
+        <v>36.892</v>
       </c>
       <c r="L4" t="n">
-        <v>35.06</v>
+        <v>36.892</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.575600000000002</v>
+        <v>6.091050000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.78195</v>
+        <v>3.0968</v>
       </c>
       <c r="D2" t="n">
-        <v>30.102</v>
+        <v>29.62705</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.7</v>
+        <v>27.86835</v>
       </c>
       <c r="G2" t="n">
-        <v>27.7</v>
+        <v>27.86835</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>59.23860000000001</v>
+        <v>189.9934</v>
       </c>
       <c r="L2" t="n">
-        <v>27.7</v>
+        <v>27.868</v>
       </c>
       <c r="M2" t="n">
-        <v>31.5386</v>
+        <v>162.1254</v>
       </c>
       <c r="N2" t="n">
-        <v>31.5386</v>
+        <v>9.1008</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>153.0246</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>9.052</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>3.811</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.424</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.972</v>
+        <v>30.839</v>
       </c>
       <c r="G3" t="n">
-        <v>26.972</v>
+        <v>29.33</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>176.8616</v>
+        <v>113.764</v>
       </c>
       <c r="L3" t="n">
-        <v>26.972</v>
+        <v>29.32999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>149.8896</v>
+        <v>84.434</v>
       </c>
       <c r="N3" t="n">
-        <v>36.3216</v>
+        <v>7.8334</v>
       </c>
       <c r="O3" t="n">
-        <v>113.568</v>
+        <v>76.6006</v>
       </c>
     </row>
     <row r="4">
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.23439999999999</v>
+        <v>36.13019999999999</v>
       </c>
       <c r="L4" t="n">
         <v>32.669</v>
       </c>
       <c r="M4" t="n">
-        <v>6.565399999999999</v>
+        <v>3.4612</v>
       </c>
       <c r="N4" t="n">
-        <v>6.565399999999999</v>
+        <v>3.4612</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.9086</v>
+        <v>7.591100000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8134</v>
+        <v>3.166999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>28.37635</v>
+        <v>27.7752</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.08904999999999</v>
+        <v>28.30954999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>28.08904999999999</v>
+        <v>28.30954999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.85899999999999</v>
+        <v>34.8614</v>
       </c>
       <c r="L2" t="n">
-        <v>28.089</v>
+        <v>28.31</v>
       </c>
       <c r="M2" t="n">
-        <v>18.77</v>
+        <v>6.551399999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>18.77</v>
+        <v>6.551399999999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>12.011</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>3.524</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.563</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.972</v>
+        <v>32.798</v>
       </c>
       <c r="G3" t="n">
-        <v>26.972</v>
+        <v>30.259</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>59.89680000000001</v>
+        <v>30.259</v>
       </c>
       <c r="L3" t="n">
-        <v>26.972</v>
+        <v>30.259</v>
       </c>
       <c r="M3" t="n">
-        <v>32.9248</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>32.9248</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>52.278</v>
+        <v>50.966</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.24</v>
+        <v>37.111</v>
       </c>
       <c r="G4" t="n">
-        <v>35.24038630136986</v>
+        <v>37.11101095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.06</v>
+        <v>36.892</v>
       </c>
       <c r="L4" t="n">
-        <v>35.06</v>
+        <v>36.892</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.354749999999998</v>
+        <v>8.155850000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4375</v>
+        <v>2.8122</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8024</v>
+        <v>29.2664</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.24259999999999</v>
+        <v>28.50304999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>28.24259999999999</v>
+        <v>28.50304999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.9966</v>
+        <v>31.0852</v>
       </c>
       <c r="L2" t="n">
-        <v>28.243</v>
+        <v>28.503</v>
       </c>
       <c r="M2" t="n">
-        <v>8.7536</v>
+        <v>2.5822</v>
       </c>
       <c r="N2" t="n">
-        <v>8.7536</v>
+        <v>2.5822</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.427</v>
+        <v>12.011</v>
       </c>
       <c r="C3" t="n">
-        <v>6.843</v>
+        <v>3.524</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>53.563</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.972</v>
+        <v>32.798</v>
       </c>
       <c r="G3" t="n">
-        <v>26.972</v>
+        <v>30.259</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>38.6142</v>
+        <v>30.259</v>
       </c>
       <c r="L3" t="n">
-        <v>26.972</v>
+        <v>30.259</v>
       </c>
       <c r="M3" t="n">
-        <v>11.6422</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11.6422</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>52.278</v>
+        <v>50.966</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.24</v>
+        <v>37.111</v>
       </c>
       <c r="G4" t="n">
-        <v>35.24038630136986</v>
+        <v>37.11101095890411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.06</v>
+        <v>36.892</v>
       </c>
       <c r="L4" t="n">
-        <v>35.06</v>
+        <v>36.892</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.21955</v>
+        <v>7.8954</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6092</v>
+        <v>2.8371</v>
       </c>
       <c r="D2" t="n">
-        <v>29.57035</v>
+        <v>29.36785</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.20289999999999</v>
+        <v>28.42365</v>
       </c>
       <c r="G2" t="n">
-        <v>28.20289999999999</v>
+        <v>28.42365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.00320000000001</v>
+        <v>58.2648</v>
       </c>
       <c r="L2" t="n">
-        <v>28.203</v>
+        <v>28.424</v>
       </c>
       <c r="M2" t="n">
-        <v>10.8002</v>
+        <v>29.8408</v>
       </c>
       <c r="N2" t="n">
-        <v>10.8002</v>
+        <v>3.4942</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>26.3466</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.659</v>
+        <v>12.02</v>
       </c>
       <c r="C3" t="n">
-        <v>1.949</v>
+        <v>2.342</v>
       </c>
       <c r="D3" t="n">
-        <v>24.353</v>
+        <v>53.166</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.935</v>
+        <v>32.735</v>
       </c>
       <c r="G3" t="n">
-        <v>26.935</v>
+        <v>30.199</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.536</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.536</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.06080000000001</v>
+        <v>59.60780000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>26.935</v>
+        <v>30.199</v>
       </c>
       <c r="M3" t="n">
-        <v>28.12580000000001</v>
+        <v>29.4088</v>
       </c>
       <c r="N3" t="n">
-        <v>28.12580000000001</v>
+        <v>0.2966</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>29.1122</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.296</v>
+        <v>33.063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025</v>
+        <v>3.664</v>
       </c>
       <c r="D4" t="n">
-        <v>51.765</v>
+        <v>50.454</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.23</v>
+        <v>37.1</v>
       </c>
       <c r="G4" t="n">
-        <v>35.22983835616439</v>
+        <v>37.10048493150685</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.1954</v>
+        <v>36.9258</v>
       </c>
       <c r="L4" t="n">
-        <v>35.049</v>
+        <v>36.882</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1464</v>
+        <v>0.0438</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1464</v>
+        <v>0.0438</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.760400000000002</v>
+        <v>6.818749999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3.1677</v>
+        <v>3.800899999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>29.9263</v>
+        <v>28.62214999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.0902</v>
+        <v>26.82205</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0902</v>
+        <v>26.82205</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.11659999999999</v>
+        <v>34.8128</v>
       </c>
       <c r="L2" t="n">
-        <v>28.09</v>
+        <v>26.822</v>
       </c>
       <c r="M2" t="n">
-        <v>8.026599999999998</v>
+        <v>7.9908</v>
       </c>
       <c r="N2" t="n">
-        <v>8.026599999999998</v>
+        <v>7.9908</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.011</v>
+        <v>12.033</v>
       </c>
       <c r="C3" t="n">
-        <v>3.524</v>
+        <v>4.49</v>
       </c>
       <c r="D3" t="n">
-        <v>53.563</v>
+        <v>51.577</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.989</v>
+        <v>30.714</v>
       </c>
       <c r="G3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="H3" t="n">
-        <v>1.73</v>
+        <v>1.733</v>
       </c>
       <c r="I3" t="n">
-        <v>1.73</v>
+        <v>1.733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>33.4962</v>
+        <v>32.2246</v>
       </c>
       <c r="L3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2372</v>
+        <v>3.2446</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2372</v>
+        <v>3.2446</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.148</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>12.313</v>
       </c>
       <c r="D4" t="n">
-        <v>50.966</v>
+        <v>33.21</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.111</v>
+        <v>36.399</v>
       </c>
       <c r="G4" t="n">
-        <v>37.11101095890411</v>
+        <v>36.39866575342466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.892</v>
+        <v>35.663</v>
       </c>
       <c r="L4" t="n">
-        <v>36.892</v>
+        <v>35.663</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.091050000000001</v>
+        <v>6.144800000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0968</v>
+        <v>3.6393</v>
       </c>
       <c r="D2" t="n">
-        <v>29.62705</v>
+        <v>28.50754999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.86835</v>
+        <v>26.59835</v>
       </c>
       <c r="G2" t="n">
-        <v>27.86835</v>
+        <v>26.59835</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>189.9934</v>
+        <v>187.4636</v>
       </c>
       <c r="L2" t="n">
-        <v>27.868</v>
+        <v>26.598</v>
       </c>
       <c r="M2" t="n">
-        <v>162.1254</v>
+        <v>160.8656</v>
       </c>
       <c r="N2" t="n">
-        <v>9.1008</v>
+        <v>9.087400000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>153.0246</v>
+        <v>151.7782</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.052</v>
+        <v>9.163</v>
       </c>
       <c r="C3" t="n">
-        <v>3.811</v>
+        <v>3.818</v>
       </c>
       <c r="D3" t="n">
-        <v>53.424</v>
+        <v>53.394</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30.839</v>
+        <v>29.562</v>
       </c>
       <c r="G3" t="n">
-        <v>29.33</v>
+        <v>28.076</v>
       </c>
       <c r="H3" t="n">
-        <v>1.509</v>
+        <v>1.486</v>
       </c>
       <c r="I3" t="n">
-        <v>1.509</v>
+        <v>1.486</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>113.764</v>
+        <v>109.719</v>
       </c>
       <c r="L3" t="n">
-        <v>29.32999999999999</v>
+        <v>28.076</v>
       </c>
       <c r="M3" t="n">
-        <v>84.434</v>
+        <v>81.643</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8334</v>
+        <v>7.8102</v>
       </c>
       <c r="O3" t="n">
-        <v>76.6006</v>
+        <v>73.83279999999999</v>
       </c>
     </row>
     <row r="4">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.685</v>
+        <v>19.757</v>
       </c>
       <c r="C4" t="n">
-        <v>3.288</v>
+        <v>7.505</v>
       </c>
       <c r="D4" t="n">
-        <v>52.879</v>
+        <v>44.213</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.865</v>
+        <v>31.867</v>
       </c>
       <c r="G4" t="n">
-        <v>32.86540273972603</v>
+        <v>31.86704657534246</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.13019999999999</v>
+        <v>34.873</v>
       </c>
       <c r="L4" t="n">
-        <v>32.669</v>
+        <v>31.419</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4612</v>
+        <v>3.454</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4612</v>
+        <v>3.454</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.591100000000002</v>
+        <v>7.648300000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166999999999999</v>
+        <v>4.11755</v>
       </c>
       <c r="D2" t="n">
-        <v>27.7752</v>
+        <v>25.8179</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.30954999999999</v>
+        <v>27.0422</v>
       </c>
       <c r="G2" t="n">
-        <v>28.30954999999999</v>
+        <v>27.0422</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.8614</v>
+        <v>33.5992</v>
       </c>
       <c r="L2" t="n">
-        <v>28.31</v>
+        <v>27.042</v>
       </c>
       <c r="M2" t="n">
-        <v>6.551399999999999</v>
+        <v>6.5572</v>
       </c>
       <c r="N2" t="n">
-        <v>6.551399999999999</v>
+        <v>6.5572</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,37 +1056,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.011</v>
+        <v>12.033</v>
       </c>
       <c r="C3" t="n">
-        <v>3.524</v>
+        <v>4.49</v>
       </c>
       <c r="D3" t="n">
-        <v>53.563</v>
+        <v>51.577</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.798</v>
+        <v>31.525</v>
       </c>
       <c r="G3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>2.545</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>2.545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="L3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.148</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>12.313</v>
       </c>
       <c r="D4" t="n">
-        <v>50.966</v>
+        <v>33.21</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.111</v>
+        <v>36.399</v>
       </c>
       <c r="G4" t="n">
-        <v>37.11101095890411</v>
+        <v>36.39866575342466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.892</v>
+        <v>35.663</v>
       </c>
       <c r="L4" t="n">
-        <v>36.892</v>
+        <v>35.663</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.155850000000001</v>
+        <v>8.215900000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8122</v>
+        <v>4.038349999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>29.2664</v>
+        <v>26.7446</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.50304999999999</v>
+        <v>27.2377</v>
       </c>
       <c r="G2" t="n">
-        <v>28.50304999999999</v>
+        <v>27.2377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>31.0852</v>
+        <v>29.5322</v>
       </c>
       <c r="L2" t="n">
-        <v>28.503</v>
+        <v>27.238</v>
       </c>
       <c r="M2" t="n">
-        <v>2.5822</v>
+        <v>2.2942</v>
       </c>
       <c r="N2" t="n">
-        <v>2.5822</v>
+        <v>2.2942</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,37 +1299,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.011</v>
+        <v>12.033</v>
       </c>
       <c r="C3" t="n">
-        <v>3.524</v>
+        <v>4.49</v>
       </c>
       <c r="D3" t="n">
-        <v>53.563</v>
+        <v>51.577</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.798</v>
+        <v>31.525</v>
       </c>
       <c r="G3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>2.545</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>2.545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="L3" t="n">
-        <v>30.259</v>
+        <v>28.98</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.148</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>12.313</v>
       </c>
       <c r="D4" t="n">
-        <v>50.966</v>
+        <v>33.21</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.111</v>
+        <v>36.399</v>
       </c>
       <c r="G4" t="n">
-        <v>37.11101095890411</v>
+        <v>36.39866575342466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.892</v>
+        <v>35.663</v>
       </c>
       <c r="L4" t="n">
-        <v>36.892</v>
+        <v>35.663</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.8954</v>
+        <v>7.955849999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8371</v>
+        <v>3.772699999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>29.36785</v>
+        <v>27.4432</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.42365</v>
+        <v>27.1573</v>
       </c>
       <c r="G2" t="n">
-        <v>28.42365</v>
+        <v>27.1573</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58.2648</v>
+        <v>30.6968</v>
       </c>
       <c r="L2" t="n">
-        <v>28.424</v>
+        <v>27.157</v>
       </c>
       <c r="M2" t="n">
-        <v>29.8408</v>
+        <v>3.539800000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4942</v>
+        <v>3.539800000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>26.3466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.02</v>
+        <v>12.033</v>
       </c>
       <c r="C3" t="n">
-        <v>2.342</v>
+        <v>4.49</v>
       </c>
       <c r="D3" t="n">
-        <v>53.166</v>
+        <v>48.758</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.735</v>
+        <v>31.467</v>
       </c>
       <c r="G3" t="n">
-        <v>30.199</v>
+        <v>28.922</v>
       </c>
       <c r="H3" t="n">
-        <v>2.536</v>
+        <v>2.545</v>
       </c>
       <c r="I3" t="n">
-        <v>2.536</v>
+        <v>2.545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>59.60780000000001</v>
+        <v>29.1636</v>
       </c>
       <c r="L3" t="n">
-        <v>30.199</v>
+        <v>28.922</v>
       </c>
       <c r="M3" t="n">
-        <v>29.4088</v>
+        <v>0.2416</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2966</v>
+        <v>0.2416</v>
       </c>
       <c r="O3" t="n">
-        <v>29.1122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.063</v>
+        <v>33.148</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664</v>
+        <v>12.313</v>
       </c>
       <c r="D4" t="n">
-        <v>50.454</v>
+        <v>32.702</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1</v>
+        <v>36.388</v>
       </c>
       <c r="G4" t="n">
-        <v>37.10048493150685</v>
+        <v>36.3882191780822</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9258</v>
+        <v>35.6966</v>
       </c>
       <c r="L4" t="n">
-        <v>36.882</v>
+        <v>35.653</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0438</v>
+        <v>0.0436</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0438</v>
+        <v>0.0436</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,43 +521,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.818749999999999</v>
+        <v>5.6525</v>
       </c>
       <c r="C2" t="n">
-        <v>3.800899999999999</v>
+        <v>21.3076</v>
       </c>
       <c r="D2" t="n">
-        <v>28.62214999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.82205</v>
+        <v>2106.15675</v>
       </c>
       <c r="G2" t="n">
-        <v>26.82205</v>
+        <v>1884.90245</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>221.2543000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>221.2543000000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.8128</v>
+        <v>2255.5172</v>
       </c>
       <c r="L2" t="n">
-        <v>26.822</v>
+        <v>1884.901</v>
       </c>
       <c r="M2" t="n">
-        <v>7.9908</v>
+        <v>370.6162</v>
       </c>
       <c r="N2" t="n">
-        <v>7.9908</v>
+        <v>370.6162</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.033</v>
+        <v>5.657</v>
       </c>
       <c r="C3" t="n">
-        <v>4.49</v>
+        <v>21.671</v>
       </c>
       <c r="D3" t="n">
-        <v>51.577</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30.714</v>
+        <v>2130.52</v>
       </c>
       <c r="G3" t="n">
-        <v>28.98</v>
+        <v>1891.517</v>
       </c>
       <c r="H3" t="n">
-        <v>1.733</v>
+        <v>239.003</v>
       </c>
       <c r="I3" t="n">
-        <v>1.733</v>
+        <v>239.003</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32.2246</v>
+        <v>2253.434</v>
       </c>
       <c r="L3" t="n">
-        <v>28.98</v>
+        <v>1891.529</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2446</v>
+        <v>361.905</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2446</v>
+        <v>361.905</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.148</v>
+        <v>6.455</v>
       </c>
       <c r="C4" t="n">
-        <v>12.313</v>
+        <v>27.614</v>
       </c>
       <c r="D4" t="n">
-        <v>33.21</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.399</v>
+        <v>2942.825</v>
       </c>
       <c r="G4" t="n">
-        <v>36.39866575342466</v>
+        <v>2685.915</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>256.91</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>256.91</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.663</v>
+        <v>2274.3248</v>
       </c>
       <c r="L4" t="n">
-        <v>35.663</v>
+        <v>2083.822</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.5028</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>190.5028</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.144800000000001</v>
+        <v>5.6953</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6393</v>
+        <v>21.51655</v>
       </c>
       <c r="D2" t="n">
-        <v>28.50754999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.59835</v>
+        <v>2126.21245</v>
       </c>
       <c r="G2" t="n">
-        <v>26.59835</v>
+        <v>1893.36445</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.848</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>232.848</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>187.4636</v>
+        <v>2165.0954</v>
       </c>
       <c r="L2" t="n">
-        <v>26.598</v>
+        <v>1893.37</v>
       </c>
       <c r="M2" t="n">
-        <v>160.8656</v>
+        <v>271.7254</v>
       </c>
       <c r="N2" t="n">
-        <v>9.087400000000001</v>
+        <v>271.7254</v>
       </c>
       <c r="O2" t="n">
-        <v>151.7782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.163</v>
+        <v>5.693</v>
       </c>
       <c r="C3" t="n">
-        <v>3.818</v>
+        <v>21.684</v>
       </c>
       <c r="D3" t="n">
-        <v>53.394</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.562</v>
+        <v>2152.578</v>
       </c>
       <c r="G3" t="n">
-        <v>28.076</v>
+        <v>1895.864</v>
       </c>
       <c r="H3" t="n">
-        <v>1.486</v>
+        <v>256.713</v>
       </c>
       <c r="I3" t="n">
-        <v>1.486</v>
+        <v>256.713</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>109.719</v>
+        <v>2164.5704</v>
       </c>
       <c r="L3" t="n">
-        <v>28.076</v>
+        <v>1895.917</v>
       </c>
       <c r="M3" t="n">
-        <v>81.643</v>
+        <v>268.6534</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8102</v>
+        <v>268.6534</v>
       </c>
       <c r="O3" t="n">
-        <v>73.83279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.757</v>
+        <v>6.076</v>
       </c>
       <c r="C4" t="n">
-        <v>7.505</v>
+        <v>24.878</v>
       </c>
       <c r="D4" t="n">
-        <v>44.213</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31.867</v>
+        <v>2951.867</v>
       </c>
       <c r="G4" t="n">
-        <v>31.86704657534246</v>
+        <v>2536.387</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.873</v>
+        <v>2173.6994</v>
       </c>
       <c r="L4" t="n">
-        <v>31.419</v>
+        <v>1993.949</v>
       </c>
       <c r="M4" t="n">
-        <v>3.454</v>
+        <v>179.7504</v>
       </c>
       <c r="N4" t="n">
-        <v>3.454</v>
+        <v>179.7504</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,43 +1007,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.648300000000001</v>
+        <v>5.60855</v>
       </c>
       <c r="C2" t="n">
-        <v>4.11755</v>
+        <v>21.1732</v>
       </c>
       <c r="D2" t="n">
-        <v>25.8179</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.0422</v>
+        <v>2103.7971</v>
       </c>
       <c r="G2" t="n">
-        <v>27.0422</v>
+        <v>1877.54715</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>226.24995</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>226.24995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33.5992</v>
+        <v>2272.7164</v>
       </c>
       <c r="L2" t="n">
-        <v>27.042</v>
+        <v>1877.552</v>
       </c>
       <c r="M2" t="n">
-        <v>6.5572</v>
+        <v>395.1644</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5572</v>
+        <v>395.1644</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.033</v>
+        <v>5.63</v>
       </c>
       <c r="C3" t="n">
-        <v>4.49</v>
+        <v>21.567</v>
       </c>
       <c r="D3" t="n">
-        <v>51.577</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.525</v>
+        <v>2126.887</v>
       </c>
       <c r="G3" t="n">
-        <v>28.98</v>
+        <v>1886.602</v>
       </c>
       <c r="H3" t="n">
-        <v>2.545</v>
+        <v>240.284</v>
       </c>
       <c r="I3" t="n">
-        <v>2.545</v>
+        <v>240.284</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.98</v>
+        <v>2269.5582</v>
       </c>
       <c r="L3" t="n">
-        <v>28.98</v>
+        <v>1886.654</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>382.9042</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>382.9042</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.148</v>
+        <v>6.076</v>
       </c>
       <c r="C4" t="n">
-        <v>12.313</v>
+        <v>24.878</v>
       </c>
       <c r="D4" t="n">
-        <v>33.21</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.399</v>
+        <v>2951.867</v>
       </c>
       <c r="G4" t="n">
-        <v>36.39866575342466</v>
+        <v>2536.387</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.663</v>
+        <v>2256.2886</v>
       </c>
       <c r="L4" t="n">
-        <v>35.663</v>
+        <v>1993.949</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>262.3396</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>262.3396</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.215900000000001</v>
+        <v>5.790549999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4.038349999999999</v>
+        <v>22.51415</v>
       </c>
       <c r="D2" t="n">
-        <v>26.7446</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.2377</v>
+        <v>2171.06715</v>
       </c>
       <c r="G2" t="n">
-        <v>27.2377</v>
+        <v>1921.16935</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>249.8978</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>249.8978</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>29.5322</v>
+        <v>2013.9938</v>
       </c>
       <c r="L2" t="n">
-        <v>27.238</v>
+        <v>1921.165</v>
       </c>
       <c r="M2" t="n">
-        <v>2.2942</v>
+        <v>92.8288</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2942</v>
+        <v>92.8288</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.033</v>
+        <v>5.82</v>
       </c>
       <c r="C3" t="n">
-        <v>4.49</v>
+        <v>22.459</v>
       </c>
       <c r="D3" t="n">
-        <v>51.577</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.525</v>
+        <v>2191.318</v>
       </c>
       <c r="G3" t="n">
-        <v>28.98</v>
+        <v>1923.628</v>
       </c>
       <c r="H3" t="n">
-        <v>2.545</v>
+        <v>267.69</v>
       </c>
       <c r="I3" t="n">
-        <v>2.545</v>
+        <v>267.69</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.98</v>
+        <v>2015.0424</v>
       </c>
       <c r="L3" t="n">
-        <v>28.98</v>
+        <v>1923.65</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.39239999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>91.39239999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.148</v>
+        <v>6.076</v>
       </c>
       <c r="C4" t="n">
-        <v>12.313</v>
+        <v>24.878</v>
       </c>
       <c r="D4" t="n">
-        <v>33.21</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.399</v>
+        <v>2951.867</v>
       </c>
       <c r="G4" t="n">
-        <v>36.39866575342466</v>
+        <v>2536.387</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.663</v>
+        <v>2049.2888</v>
       </c>
       <c r="L4" t="n">
-        <v>35.663</v>
+        <v>1993.949</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>55.33979999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>55.33979999999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,43 +1493,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.955849999999998</v>
+        <v>5.755099999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3.772699999999999</v>
+        <v>22.1769</v>
       </c>
       <c r="D2" t="n">
-        <v>27.4432</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.1573</v>
+        <v>2148.71695</v>
       </c>
       <c r="G2" t="n">
-        <v>27.1573</v>
+        <v>1911.3858</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.33115</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>237.33115</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>30.6968</v>
+        <v>2090.6632</v>
       </c>
       <c r="L2" t="n">
-        <v>27.157</v>
+        <v>1911.392</v>
       </c>
       <c r="M2" t="n">
-        <v>3.539800000000001</v>
+        <v>179.2712</v>
       </c>
       <c r="N2" t="n">
-        <v>3.539800000000001</v>
+        <v>179.2712</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.033</v>
+        <v>5.721</v>
       </c>
       <c r="C3" t="n">
-        <v>4.49</v>
+        <v>22.303</v>
       </c>
       <c r="D3" t="n">
-        <v>48.758</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.467</v>
+        <v>2171.454</v>
       </c>
       <c r="G3" t="n">
-        <v>28.922</v>
+        <v>1909.558</v>
       </c>
       <c r="H3" t="n">
-        <v>2.545</v>
+        <v>261.895</v>
       </c>
       <c r="I3" t="n">
-        <v>2.545</v>
+        <v>261.895</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.1636</v>
+        <v>2090.7134</v>
       </c>
       <c r="L3" t="n">
-        <v>28.922</v>
+        <v>1909.562</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2416</v>
+        <v>181.1514</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2416</v>
+        <v>181.1514</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.148</v>
+        <v>6.076</v>
       </c>
       <c r="C4" t="n">
-        <v>12.313</v>
+        <v>24.878</v>
       </c>
       <c r="D4" t="n">
-        <v>32.702</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.388</v>
+        <v>2951.867</v>
       </c>
       <c r="G4" t="n">
-        <v>36.3882191780822</v>
+        <v>2536.387</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>415.48</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.6966</v>
+        <v>2115.5934</v>
       </c>
       <c r="L4" t="n">
-        <v>35.653</v>
+        <v>1993.949</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0436</v>
+        <v>121.6444</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0436</v>
+        <v>121.6444</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>